--- a/data/compiling/2023/CRSR/murciélago_parcelas/Murciélago_effort_2023.xlsx
+++ b/data/compiling/2023/CRSR/murciélago_parcelas/Murciélago_effort_2023.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisjoyce/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisjoyce/GitHub/ACG-CBC-data/data/compiling/2023/CRSR/murciélago_parcelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5B9E4A4-5C33-DC4D-8D04-C36E4815FAA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330D732-FD60-4047-93BC-4342F7C8265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17140" xr2:uid="{8BA773B0-5346-2648-92B4-F339C4A77B01}"/>
+    <workbookView xWindow="7820" yWindow="760" windowWidth="28040" windowHeight="17140" xr2:uid="{8BA773B0-5346-2648-92B4-F339C4A77B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Segment</t>
   </si>
@@ -96,6 +96,15 @@
   </si>
   <si>
     <t>Parcelas road (daylight)</t>
+  </si>
+  <si>
+    <t>Lunch at Murcielago entrance</t>
+  </si>
+  <si>
+    <t>Combined duration</t>
+  </si>
+  <si>
+    <t>16:43-17:53</t>
   </si>
 </sst>
 </file>
@@ -161,9 +170,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -201,7 +210,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -307,7 +316,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -449,7 +458,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -457,19 +466,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE98978-A2D3-9242-9FF8-D4E22F525FE3}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="40.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -485,8 +495,14 @@
       <c r="E1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0.21388888888888888</v>
+      </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -497,7 +513,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>2</v>
       </c>
@@ -511,105 +527,143 @@
         <v>8.6805555555555566E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>0.5</v>
+      </c>
       <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2">
+        <f>A4-A2</f>
+        <v>0.28611111111111109</v>
+      </c>
+      <c r="G4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
       <c r="D5">
+        <v>2.4</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2">
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>0.53819444444444442</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>0.56000000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" t="s">
-        <v>8</v>
+      <c r="F7" s="2">
+        <v>5.9027777777777776E-2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>0.13194444444444445</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
-      <c r="D9">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
       </c>
       <c r="D10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
         <v>16</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>17</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>15</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>0.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data/compiling/2023/CRSR/murciélago_parcelas/Murciélago_effort_2023.xlsx
+++ b/data/compiling/2023/CRSR/murciélago_parcelas/Murciélago_effort_2023.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francisjoyce/GitHub/ACG-CBC-data/data/compiling/2023/CRSR/murciélago_parcelas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C330D732-FD60-4047-93BC-4342F7C8265A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E230876-C536-214B-AC81-B286E022615A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7820" yWindow="760" windowWidth="28040" windowHeight="17140" xr2:uid="{8BA773B0-5346-2648-92B4-F339C4A77B01}"/>
+    <workbookView xWindow="2200" yWindow="760" windowWidth="28040" windowHeight="17140" xr2:uid="{8BA773B0-5346-2648-92B4-F339C4A77B01}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Segment</t>
   </si>
@@ -105,6 +105,24 @@
   </si>
   <si>
     <t>16:43-17:53</t>
+  </si>
+  <si>
+    <t>total time</t>
+  </si>
+  <si>
+    <t>night time</t>
+  </si>
+  <si>
+    <t>day time</t>
+  </si>
+  <si>
+    <t>nap</t>
+  </si>
+  <si>
+    <t>walkng total</t>
+  </si>
+  <si>
+    <t>driving total</t>
   </si>
 </sst>
 </file>
@@ -466,10 +484,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE98978-A2D3-9242-9FF8-D4E22F525FE3}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -666,6 +684,77 @@
         <v>22</v>
       </c>
     </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>0.74513888888888891</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16">
+        <f>D2+D3+D7+D14</f>
+        <v>5.2200000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <f>A16-A2</f>
+        <v>0.53125</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17">
+        <f>D5+D6+D10+D11+D13</f>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>0.40625</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
